--- a/pred_ohlcv/54_21/2020-01-20 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 XSR ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-1022932.640527106</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-984792.0353271065</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1353547.324827106</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1353464.199727106</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1751675.091827106</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1463176.565627106</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1462937.345327107</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1667728.307827106</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1667645.182727106</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-3143501.861427106</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-3205371.524027106</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-3435870.805727107</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-3176391.823827107</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-3584841.089627107</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-3584841.089627107</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-3863775.465227107</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-3876100.442827106</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-3569615.538827106</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-3569471.538827106</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-3746185.300827106</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-3746268.634227106</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-3746268.634227106</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-4040315.856927106</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-4004230.500427106</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-4004130.500427106</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-4289626.923527106</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-4464090.122127105</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-4219296.178027106</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-4187176.306227106</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-4594551.055727106</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-4797062.503027106</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-3589455.434727105</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3382984.499827105</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3383506.746327105</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3384537.383127104</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-3701608.055427104</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-3858248.176727104</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3698804.709627104</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-4168700.423427104</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-3355856.865827104</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-2965523.789027104</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-2965523.789027104</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-3229803.580027104</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3402304.579127104</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-3668954.684227104</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-3421435.221627104</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3420463.035027104</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3720238.156127104</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-4028943.958227104</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4258902.487527104</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3835245.550427104</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-4171428.921527104</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-4024189.806627105</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-4024189.806627105</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3682353.905827105</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4444511.288927104</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-4443599.904466416</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-4442934.015066416</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-4765141.928305727</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-5073218.367405728</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4700855.910405727</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4700855.910405727</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-5046030.389305728</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-5324789.287305728</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-5606014.071305728</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-5192876.237905728</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-5192876.237905728</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-5407575.254905728</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-5104552.086305728</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-5104885.656105728</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-4686982.228605728</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-4298443.829805728</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-4299069.173205728</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-4299125.863905728</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-4723613.582505728</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-5155553.323905728</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-20470605.54386462</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-20223692.92056462</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-20223692.92056462</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-20065489.57506462</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-20018053.90196462</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-20924545.38306462</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-20223815.29096462</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-20225446.78266462</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-20264463.61566462</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-20761355.20496462</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-20267969.36146462</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-21031117.53696462</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-20555441.70526462</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-20191943.68196462</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-20062671.10736462</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-20315633.84376462</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-19919831.8899364</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-20203216.4852364</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-20676769.1958364</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-20569297.3552364</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-21250863.0661364</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-21255099.8111364</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-21498234.8399364</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-21731112.3391364</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-21730581.5144364</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-21314459.8198364</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-21314371.8198364</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-20142997.14329735</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 XSR ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-1022932.640527106</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-984792.0353271065</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1353547.324827106</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1353464.199727106</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1751675.091827106</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1463176.565627106</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1462937.345327107</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1667728.307827106</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1667645.182727106</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-3143501.861427106</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-3205371.524027106</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-3435870.805727107</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-3176391.823827107</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-3584841.089627107</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-3584841.089627107</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-3863775.465227107</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-4594551.055727106</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-3589455.434727105</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3382984.499827105</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3383506.746327105</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3384537.383127104</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-3701608.055427104</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-3858248.176727104</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3698804.709627104</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3393705.749527104</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-3827521.903427104</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-3538227.601627104</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-3355856.865827104</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-2965523.789027104</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-2965523.789027104</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-3229803.580027104</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3402304.579127104</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-3668954.684227104</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-3421435.221627104</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3420463.035027104</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3720238.156127104</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-4028943.958227104</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4258902.487527104</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3835245.550427104</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-4171428.921527104</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-4024189.806627105</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-4024189.806627105</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3682353.905827105</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-4107281.331027105</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4444511.288927104</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-4443599.904466416</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-4442934.015066416</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-4765141.928305727</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-5073218.367405728</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4700855.910405727</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-5046030.389305728</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-5324789.287305728</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-5606014.071305728</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-6032045.230705728</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-5634642.407505727</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-5192876.237905728</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-5192876.237905728</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-5192876.237905728</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-5407575.254905728</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-5104552.086305728</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-5104885.656105728</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-4686982.228605728</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-4298443.829805728</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-4299069.173205728</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-4299125.863905728</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-4299125.863905728</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-4723613.582505728</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-5155553.323905728</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-5272706.325605728</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-6034004.281605727</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-20470605.54386462</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-20223692.92056462</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-20223692.92056462</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-20065489.57506462</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-20018053.90196462</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-20320854.59406462</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-20221269.33956462</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-20223815.29096462</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-20225446.78266462</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-20264463.61566462</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-20761355.20496462</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-20267969.36146462</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-21031117.53696462</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-20555441.70526462</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-20191943.68196462</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-20062671.10736462</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-20315633.84376462</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-19919831.8899364</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-19788546.0809364</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-20203216.4852364</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-20676769.1958364</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-20569297.3552364</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-21250863.0661364</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-21255099.8111364</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-21498234.8399364</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-21731112.3391364</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-21730581.5144364</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-21314459.8198364</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-21314371.8198364</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-20142997.14329735</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
